--- a/chapter5/Chapter5-cv-1c.xlsx
+++ b/chapter5/Chapter5-cv-1c.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD9FA64-C39D-4526-AD20-71F8AF02B6E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="20" r:id="rId1"/>
@@ -157,9 +156,9 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -173,11 +172,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CEF32D18-C8CD-4BE9-B4DC-EAC474ADDC4B}" keepAlive="1" name="Query - iris" description="Connection to the 'iris' query in the workbook." type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - iris" description="Connection to the 'iris' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=iris;Extended Properties=&quot;&quot;" command="SELECT * FROM [iris]"/>
   </connection>
-  <connection id="2" xr16:uid="{31551D76-C3A7-4CEC-971C-1CFCAC884E7A}" keepAlive="1" name="Query - iris (2)" description="Connection to the 'iris (2)' query in the workbook." type="5" refreshedVersion="6" background="1">
+  <connection id="2" keepAlive="1" name="Query - iris (2)" description="Connection to the 'iris (2)' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=iris (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [iris (2)]"/>
   </connection>
 </connections>
@@ -276,8 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,7 +425,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483CAE6B-F734-4942-8539-51F3627DD773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{483CAE6B-F734-4942-8539-51F3627DD773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -592,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -769,21 +768,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5C7A7-ADA5-40EF-8FB6-DC19CDD6C1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -791,25 +790,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5249023B-20DB-4C98-9826-CDC22C7DA1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:N20"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -854,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -902,7 +901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -950,7 +949,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -986,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1032,10 +1031,10 @@
       </c>
       <c r="O5">
         <f ca="1">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M5)</f>
-        <v>0.19444466882090394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19444466882090183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1081,10 +1080,10 @@
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O9" ca="1" si="4">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M6)</f>
-        <v>-8.7903759686152549E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-8.7903759686152216E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1130,10 +1129,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.6965909289020631E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-6.6965909289020645E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1179,10 +1178,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19482809006384383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19482809006384363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1228,10 +1227,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65615268702970797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.65615268702970853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>0.13063356026901235</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>0.66576236734601513</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>0.88156955881474175</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>0.78251620895751106</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1817,7 +1816,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1828,7 +1827,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1839,7 +1838,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1850,7 +1849,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1861,7 +1860,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1872,7 +1871,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1883,7 +1882,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1894,7 +1893,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1905,7 +1904,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1916,7 +1915,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1927,7 +1926,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1938,7 +1937,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1949,7 +1948,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1960,7 +1959,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1971,7 +1970,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1982,7 +1981,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1993,7 +1992,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2004,7 +2003,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2015,7 +2014,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2026,7 +2025,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2037,7 +2036,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2049,7 +2048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>5.1635369852477903E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>1.4665451478337735E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>9.3803554906154198E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>4.1214673898556072E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>1.0831471622610514E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>5.7413509089737462E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>2.3866891296865208E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>2.3428091464915052E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>7.8776211976312113E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>6.6623440578524084E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>6.0322307443476369E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>1.2027043315020328E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>1.0802457740267907E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>5.2406797318077344E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>1.814053117590281E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>2.0182687608011098E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>4.629064162570155E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>2.0584843704987522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>3.0809399977560686E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>6.1027054831872627E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>9.190490953395221E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>4.5450933758809531E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>3.4098627177402904E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>7.2886978644384716E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>2.7103938097524691E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>5.8470210711561573E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>6.2475676635062897E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>9.4621251016678495E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>2.3263790574872822E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>1.9017200879911999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>4.0908965251348888E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>4.1556032781566452E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>8.1534284995854692E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>6.9495999090599704E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>1.3968584180496443E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>4.2926618350163865E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>7.9015217388089261E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>1.2437662291495555E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>1.8416458506192668E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>1.3614656472681716E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>1.5933035231798991E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>5.0550833495780368E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>5.6653971120597217E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>1.9946539451255813E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>8.5001767702708045E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>3.4885411289986595E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>1.1509279954791784E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>6.3049583265263086E-6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>2.2817842635168596E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>1.9539170726011095E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>1.5908182991464773E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>6.3343861240157124E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>3.1779010759446567E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>5.9026253114759864E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>4.7634508167300263E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>1.0230852449000465E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>2.7401308894041011E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>1.4855877689875189E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>1.4058449756265672E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>1.277877255826469E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>2.3641426579886228E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>1.6119087292767762E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>2.853497863890604E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>1.6269996587963962E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>5.3615773647397863E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>1.8459831089218889E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>9.8980674243005925E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>6.7500250837705007E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>2.6694728073458084E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>2.6436839260837429E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>1.2208706092263636E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>3.4507594294783325E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>6.2343193644598291E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>2.2263280950910951E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>4.2955197045276856E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>6.369405365099348E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1.7953246295548188E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>1.9986086428295602E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>1.5518361290019194E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>6.5941136778560454E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>5.5094569742212044E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>8.4821165968931873E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>2.4286605851212705E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>8.6367781676885802E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>1.2799808022716009E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>2.2689339770963241E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>2.1471297487984927E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>1.1821722959089382E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>9.7042854699610302E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>3.137319896636633E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>1.6365628274268712E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>8.5837973748728851E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>6.6526419005383695E-6</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>2.8551798182503186E-6</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>1.0440459769587202E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>3.0831347922815521E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>1.9092770569276638E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>1.1083553446766166E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>3.3265692684598544E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>5.4944628199083736E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>8.5001767702708045E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>2.4112740505490167E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>4.1899070619129796E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>3.1720357396002137E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>1.5788711243850772E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>1.8095443424931339E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>2.1791064119559E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>3.8985745774821096E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>2.6276418001454148E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>4.5170273003427132E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>9.2274582302911048E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>2.4866935966216138E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>3.7760560686552896E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>2.9899062921471979E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>2.2228187042015362E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>9.2433980029306721E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>3.6952966275157068E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>3.2847471468266435E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>1.0074056032071305E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>4.5484045679587597E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>1.1195007153323854E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>2.036672589030666E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>7.6524023659588049E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>2.9016223782213905E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>6.4234993283044687E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>1.2373361902696984E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>6.0801708548598584E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -6154,25 +6153,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41105226-3D1C-474B-A54E-E86056F1D43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20:N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -6391,10 +6390,10 @@
       </c>
       <c r="O5">
         <f ca="1">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M5)</f>
-        <v>-8.8420964091806553E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-8.842096409179212E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -6439,10 +6438,10 @@
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O9" ca="1" si="3">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M6)</f>
-        <v>-0.11864479889084652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.11864479889084659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -6487,10 +6486,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7634406485771966E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.763440648577198E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -6535,10 +6534,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26363083723654146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.26363083723654129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -6583,10 +6582,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54789611651173797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.54789611651173775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>357.05677851368245</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>24436.518809913669</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -6880,7 +6879,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>1467293259.5933588</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>0.83088418453030144</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8" t="s">
         <v>7</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8" t="s">
         <v>7</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7649,7 +7648,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -7661,7 +7660,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -7673,7 +7672,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -7685,7 +7684,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -7697,7 +7696,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7709,7 +7708,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -7721,7 +7720,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -7733,7 +7732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>538839.09262798808</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>4387148.4363878481</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>14795291.938220095</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>94527.760828251237</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>18245009.315870635</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>1100684.8738538355</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>3498047.0641597011</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>9001337.4251823351</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>267644.55320871057</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>1507761.1929600665</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>2998833.2923449972</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>383980.60339751834</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>3973302.0164124314</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>51814.926077293429</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>10731980.319711627</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>5746704.1633638348</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>1676630.547292589</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>15506066.129905069</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>107030720.16444765</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>8455625.9915061239</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>407980.37433359935</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>8486338.19246291</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>4885083.9711593213</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>22335902.641521573</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>43350.127629707742</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>812492.06970940181</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>780235.78449710028</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>407432.53384985699</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>1287424.058064142</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>7911707.177642907</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>5168011.3928652322</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>3953446.7810858944</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>25016149.558879711</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>107091.34906627914</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>17572260.05954719</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>3857892.1471491731</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>437819.15855653503</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>71409224.547268957</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>15292516.105583658</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>1044951.3667491481</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>25163.382672973305</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>7454779.7655407852</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>43634240.478490308</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>1595.1037007550835</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>3981594.8032994699</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>8508781.446167266</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>31175216.430604078</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>114960039.08007784</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>1496587.7434042008</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>35166640.709071055</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>34082504.375445925</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>16894366.87364972</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>3367295.3521261704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>17521925.7851994</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>18241905.115901295</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>16570031.140051575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>4024471.9172426006</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>3586344.6630673246</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>7572982.4446063591</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>21152.926294239682</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>1437719.99589463</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>50593.598923788493</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>67736701.835704908</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>551107.91061525617</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>267644.55320871057</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>6027681.748755265</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>4485807.9352279557</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>20630316.434097469</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>2851028.8279930982</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>39312816.697268762</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>21159688.430244416</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>14354418.693435226</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>7912885.5554146627</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>25030937.517324653</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>12206612.764705686</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>11394542.06752958</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>10799844.456240093</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>40001036.249050096</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>7006955.4323584707</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>4372690.9118900448</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>9493736.4303199407</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>12807274.188358579</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>29001861.41307196</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -10421,7 +10420,7 @@
         <v>2999.6397748001705</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>911939.46066714171</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>1944187.8837848217</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>18878151.235486567</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>1159041.4289671991</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>26284738.979435407</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>39893751.354627855</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>2345862.8476537284</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>724963.25204768172</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>2355237.0217059054</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>238616.70853312971</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>267644.55320871057</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>2106560.0133693139</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>7842429.6401864337</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>10165528.079090741</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>21752991.135081634</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>13938512.039665902</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>3274484.4311742848</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>7304.2157994408599</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>2705470.8390942793</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>671410.171263595</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>30438475.779763918</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -11111,7 +11110,7 @@
         <v>2526668.4345495035</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>34230187.528007373</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>24055649.88569241</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>25096.973059067677</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>3486620.7483614781</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>2629653.0432917117</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>47026858.010209545</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>39987476.219861887</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -11368,25 +11367,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E93131-A87B-4845-9613-C88FA15E6C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:N20"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -11478,7 +11477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -11525,7 +11524,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -11605,10 +11604,10 @@
       </c>
       <c r="O5">
         <f ca="1">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M5)</f>
-        <v>0.36141025493666212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.36141025493666157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -11653,10 +11652,10 @@
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O9" ca="1" si="3">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M6)</f>
-        <v>-0.12991408223554929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.12991408223554912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -11701,10 +11700,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.4829659573694742E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-6.4829659573694701E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -11749,10 +11748,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22694840872059791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.22694840872059763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -11797,10 +11796,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62217373274250543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.62217373274250554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -11879,7 +11878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>0.24530470441198624</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>0.82670290630027687</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -12094,7 +12093,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>0.96077064761151365</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>0.75505877686320755</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -12501,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -12641,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -12652,7 +12651,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -12663,7 +12662,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -12674,7 +12673,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12685,7 +12684,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12696,7 +12695,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12707,7 +12706,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -12719,7 +12718,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12731,7 +12730,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -12743,7 +12742,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -12755,7 +12754,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -12767,7 +12766,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12779,7 +12778,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -12791,7 +12790,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -12803,7 +12802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -12835,7 +12834,7 @@
         <v>7.5751425629260773E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>5.1293723678474254E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -12899,7 +12898,7 @@
         <v>3.3429618469456752E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>2.1376924261568776E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>9.1490844494199423E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>5.5069943538784112E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>2.0508969818798547E-7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>2.9068512851161292E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>4.0133990921330971E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>1.0058168968826062E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>7.0440517597285918E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>1.2618326151927872E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>1.3325566725182541E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -13251,7 +13250,7 @@
         <v>8.1500262965418391E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>8.8429138964802646E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>7.1722731880040809E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>2.9414794080586705E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -13379,7 +13378,7 @@
         <v>8.7223358494873005E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>1.3751308578462238E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -13443,7 +13442,7 @@
         <v>2.350420304512672E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>2.3602991506856158E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>1.2380963504475788E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>6.5220747708434291E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>3.0268542093435931E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>4.5704913527313375E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -13635,7 +13634,7 @@
         <v>6.9662761910939701E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -13667,7 +13666,7 @@
         <v>3.3216471401491222E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>5.8095802981264207E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -13731,7 +13730,7 @@
         <v>9.9298730437778135E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>4.1927440025941303E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>3.1455489210319796E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -13827,7 +13826,7 @@
         <v>5.4833314544377207E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>4.6127551624079444E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>5.9175561875134542E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>4.1797582306520752E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>1.2722551830983799E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -13987,7 +13986,7 @@
         <v>3.4606418335532082E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>2.7921301005925515E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>1.1200462186226677E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>1.5048570408526344E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>1.6379473892728532E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v>6.7686061993075738E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -14179,7 +14178,7 @@
         <v>2.6067554562921799E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>8.2864672937343533E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>6.3942960585131629E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>2.6919450487825389E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>2.4499785600123045E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>3.5994891369597062E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>1.8184508947880543E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -14403,7 +14402,7 @@
         <v>8.2187277874924529E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>5.706052708832959E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -14467,7 +14466,7 @@
         <v>2.1645943054888908E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -14499,7 +14498,7 @@
         <v>8.1837686361574177E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -14531,7 +14530,7 @@
         <v>5.3613815355710278E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>7.9368724159379093E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>1.4697272145049829E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>7.90313929000689E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>2.7553415694053004E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>6.6769389930871875E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>1.5462456199438068E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -14755,7 +14754,7 @@
         <v>5.576581752718141E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>5.342311090875873E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -14818,7 +14817,7 @@
         <v>2.3862245288471147E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>1.6292158834786369E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>4.1797582306520752E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>3.1326422668361857E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>3.7720529333781809E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>4.1890902696247526E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>9.7158006847125611E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>3.2205600288273607E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>5.2508071824374624E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>2.9651695693630677E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>5.167723340886699E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -15159,7 +15158,7 @@
         <v>6.1261860311305895E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>1.391170605015437E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -15221,7 +15220,7 @@
         <v>7.5577835583927344E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -15252,7 +15251,7 @@
         <v>1.8596621754049563E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -15283,7 +15282,7 @@
         <v>6.2113609512476041E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>3.6839891362627536E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>4.5481964727171649E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>1.1613469211063233E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>3.0240215232877281E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -15438,7 +15437,7 @@
         <v>2.7381223563928466E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>4.7816540367176903E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -15500,7 +15499,7 @@
         <v>4.5826454110710971E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -15531,7 +15530,7 @@
         <v>4.9630785995446603E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>8.6593014770764455E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>6.6887965845801893E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>9.2912810960161905E-6</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -15655,7 +15654,7 @@
         <v>1.0240512899532045E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>2.2003736527688233E-6</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>1.0022635873144151E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>1.0700971250219949E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -15779,7 +15778,7 @@
         <v>7.3566676283758209E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>5.1781520911806326E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>1.3682629108382422E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>9.2101927968033426E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -15903,7 +15902,7 @@
         <v>6.3723098669482597E-7</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>3.2395527094769066E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>1.0347795519918322E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -15996,7 +15995,7 @@
         <v>1.010865526174384E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -16027,7 +16026,7 @@
         <v>2.3660817320703451E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>3.0301184626492325E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -16089,7 +16088,7 @@
         <v>1.1274598045635706E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>2.3081674952941745E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -16151,7 +16150,7 @@
         <v>2.3389655454682402E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>3.4730681587970227E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>1.8582133044761374E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>2.9589508663548651E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -16275,7 +16274,7 @@
         <v>5.342311090875873E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>3.2617426220544864E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -16337,7 +16336,7 @@
         <v>8.2533150416401555E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -16368,7 +16367,7 @@
         <v>2.4717321063868884E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>2.2801101212599359E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>3.9369111651322989E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>4.6526653046165406E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>7.6156653356066377E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>6.4780776159758481E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>2.5791034335312301E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -16594,25 +16593,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC58CE6C-7BDE-4243-872A-C8577698A496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20:N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -16657,7 +16656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -16831,10 +16830,10 @@
       </c>
       <c r="O5">
         <f ca="1">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M5)</f>
-        <v>0.21193800815945119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.21193800815945218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -16879,10 +16878,10 @@
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O9" ca="1" si="3">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M6)</f>
-        <v>-0.10785765756492771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.1078576575649277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -16927,10 +16926,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.8962749520010847E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4.8962749520010916E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -16975,10 +16974,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21374443816651237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.21374443816651206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -17023,10 +17022,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63805222500383174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.63805222500383185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -17105,7 +17104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -17152,7 +17151,7 @@
         <v>0.19833102828166013</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>0.71901021762639861</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -17320,7 +17319,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -17362,7 +17361,7 @@
         <v>0.67003192133597178</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -17404,7 +17403,7 @@
         <v>0.87433347572013098</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -17439,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -17482,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -17517,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -17587,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -17727,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -17762,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -17797,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -17843,7 +17842,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -17854,7 +17853,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -17865,7 +17864,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -17876,7 +17875,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -17887,7 +17886,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -17898,7 +17897,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -17909,7 +17908,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -17921,7 +17920,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -17933,7 +17932,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -17945,7 +17944,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -17957,7 +17956,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -17969,7 +17968,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -17981,7 +17980,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -17993,7 +17992,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -18005,7 +18004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>2.4845425891077549E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -18069,7 +18068,7 @@
         <v>1.9569723422393237E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>3.8712754327575443E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -18133,7 +18132,7 @@
         <v>2.7665880303143597E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>1.7436794440925095E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>3.4351130389186443E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>6.5411308030061328E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>2.0138279617825674E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -18293,7 +18292,7 @@
         <v>2.8331132536844102E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -18325,7 +18324,7 @@
         <v>6.8329020926791194E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -18357,7 +18356,7 @@
         <v>1.8933389639587097E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -18389,7 +18388,7 @@
         <v>2.3397831868157584E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>3.9975269278141852E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -18453,7 +18452,7 @@
         <v>1.610503771891283E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>4.0683650500582223E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>7.5643592882925458E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>1.9239015424735269E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -18581,7 +18580,7 @@
         <v>3.8250534084748379E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18612,7 @@
         <v>2.5965457692239843E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>1.5631026796065165E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -18677,7 +18676,7 @@
         <v>5.0790317335048596E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -18709,7 +18708,7 @@
         <v>3.3484720182354669E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>3.6851598074515691E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -18773,7 +18772,7 @@
         <v>1.0000340813657303E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -18805,7 +18804,7 @@
         <v>3.477567636420677E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>5.4972362280072581E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>3.274229473727905E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -18901,7 +18900,7 @@
         <v>8.4319907911195105E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>3.043349324745272E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -18965,7 +18964,7 @@
         <v>5.3366807055833529E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -18997,7 +18996,7 @@
         <v>9.9087205168732952E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -19029,7 +19028,7 @@
         <v>3.25989878550818E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -19061,7 +19060,7 @@
         <v>4.1133376087885433E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -19092,7 +19091,7 @@
         <v>1.2994695774684181E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -19123,7 +19122,7 @@
         <v>1.4300833000258399E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -19154,7 +19153,7 @@
         <v>3.4351130389186443E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -19185,7 +19184,7 @@
         <v>9.447397915593389E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>3.6166503254631273E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v>2.9531776067994787E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -19278,7 +19277,7 @@
         <v>5.0852209518364062E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -19309,7 +19308,7 @@
         <v>2.3488696814355958E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -19340,7 +19339,7 @@
         <v>4.2722144116076992E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -19371,7 +19370,7 @@
         <v>1.7487662458082283E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>4.0575218758299534E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -19433,7 +19432,7 @@
         <v>8.4843841761458513E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -19464,7 +19463,7 @@
         <v>1.370932350244706E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>9.0789174481112811E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -19526,7 +19525,7 @@
         <v>2.2164923065292993E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -19557,7 +19556,7 @@
         <v>9.8894584919769924E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -19588,7 +19587,7 @@
         <v>2.7540711871600136E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>2.3917967958265243E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>2.8753945251175886E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -19681,7 +19680,7 @@
         <v>2.1921374572528209E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -19712,7 +19711,7 @@
         <v>1.9758239116924058E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -19743,7 +19742,7 @@
         <v>6.7749263763394723E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -19774,7 +19773,7 @@
         <v>3.0785459284779259E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -19805,7 +19804,7 @@
         <v>4.003621523659662E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>5.5086855979369414E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -19867,7 +19866,7 @@
         <v>3.5386384751129119E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -19898,7 +19897,7 @@
         <v>3.8080534688664128E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -19929,7 +19928,7 @@
         <v>5.2547255062638971E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -19960,7 +19959,7 @@
         <v>1.4629251356633346E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -19991,7 +19990,7 @@
         <v>9.4520940380905843E-8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -20022,7 +20021,7 @@
         <v>8.3246430106352267E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -20053,7 +20052,7 @@
         <v>5.3605021870400905E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -20084,7 +20083,7 @@
         <v>3.9103348893244974E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>6.1881606426096407E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -20146,7 +20145,7 @@
         <v>3.1583263345726288E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -20177,7 +20176,7 @@
         <v>1.4472865874172346E-7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -20208,7 +20207,7 @@
         <v>2.2982408637184253E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -20239,7 +20238,7 @@
         <v>3.3440232269417551E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>1.0101673690245646E-7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -20301,7 +20300,7 @@
         <v>1.9602255775289023E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -20332,7 +20331,7 @@
         <v>2.8256334618124532E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>5.3565694041118597E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -20394,7 +20393,7 @@
         <v>1.1479339057615461E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -20425,7 +20424,7 @@
         <v>3.4582926475087506E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -20456,7 +20455,7 @@
         <v>3.474897604518952E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -20487,7 +20486,7 @@
         <v>7.0931222919322758E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -20518,7 +20517,7 @@
         <v>2.6892903752920753E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -20549,7 +20548,7 @@
         <v>4.1133376087885433E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -20580,7 +20579,7 @@
         <v>1.0315089103128063E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -20611,7 +20610,7 @@
         <v>9.3276023269336494E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -20642,7 +20641,7 @@
         <v>3.0810852680610121E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>1.5421903328858398E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -20704,7 +20703,7 @@
         <v>4.4306507641048588E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -20735,7 +20734,7 @@
         <v>5.814390998089725E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -20766,7 +20765,7 @@
         <v>7.9935123267755766E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>8.3230740375352958E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -20828,7 +20827,7 @@
         <v>1.1876618723624011E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -20859,7 +20858,7 @@
         <v>2.7644467188701707E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -20890,7 +20889,7 @@
         <v>4.4595433138017128E-5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -20921,7 +20920,7 @@
         <v>5.3820438294715708E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -20952,7 +20951,7 @@
         <v>1.3959601520815258E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -20983,7 +20982,7 @@
         <v>1.2551302693908739E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -21014,7 +21013,7 @@
         <v>1.1582990669888917E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -21045,7 +21044,7 @@
         <v>5.9037851616804073E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>7.7610341123616762E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -21107,7 +21106,7 @@
         <v>1.5498435711251788E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -21138,7 +21137,7 @@
         <v>3.4351130389186443E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>6.2276679201920323E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -21200,7 +21199,7 @@
         <v>3.644966623007383E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -21231,7 +21230,7 @@
         <v>3.0933973042910755E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -21262,7 +21261,7 @@
         <v>3.088220229042371E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -21293,7 +21292,7 @@
         <v>9.4733491222206241E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>1.5349617574861732E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>9.2606563320217841E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>3.5585811671697792E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -21417,7 +21416,7 @@
         <v>5.504520458200662E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -21448,7 +21447,7 @@
         <v>4.2111328548646333E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -21479,7 +21478,7 @@
         <v>2.6404777599884147E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -21510,7 +21509,7 @@
         <v>2.2766629616466499E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -21541,7 +21540,7 @@
         <v>1.2299856534770776E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -21572,7 +21571,7 @@
         <v>3.3627882454563313E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -21603,7 +21602,7 @@
         <v>8.989842692195044E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>1.2821779037337663E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>1.9793471923717974E-5</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>6.4224220128715438E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>3.1490767677708714E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -21758,7 +21757,7 @@
         <v>2.8567813341140932E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -21798,25 +21797,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CDED9F-04C9-448D-951A-17441AEE2B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -21861,7 +21860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -21908,7 +21907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -21955,7 +21954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -21990,7 +21989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -22035,10 +22034,10 @@
       </c>
       <c r="O5">
         <f ca="1">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M5)</f>
-        <v>0.19335390351801707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19335390351801784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -22083,10 +22082,10 @@
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O9" ca="1" si="3">INDEX(LINEST(INDIRECT("F$"&amp;$O$2&amp;":F$"&amp;$O$3), INDIRECT("B$"&amp;$O$2&amp;":E$"&amp;$O$3),TRUE,TRUE),1,$M6)</f>
-        <v>-0.10313033050691144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.10313033050691135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -22131,10 +22130,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.7777482903275834E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-5.7777482903275917E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -22179,10 +22178,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23623054911327598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.23623054911327585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -22227,10 +22226,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58465178713790122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.58465178713790089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -22265,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -22356,7 +22355,7 @@
         <v>9.4654089013805745E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>0.72926386100292084</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -22446,7 +22445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -22481,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -22524,7 +22523,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>0.87834639225688671</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>0.81011600251879656</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -22643,7 +22642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
@@ -22686,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -22756,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -22791,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
@@ -22826,7 +22825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
@@ -22861,7 +22860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
@@ -22896,7 +22895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
@@ -22931,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
@@ -22966,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -23001,7 +23000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -23036,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -23071,7 +23070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
@@ -23106,7 +23105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
@@ -23141,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
@@ -23176,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -23187,7 +23186,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -23198,7 +23197,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -23209,7 +23208,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -23221,7 +23220,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -23233,7 +23232,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -23245,7 +23244,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -23257,7 +23256,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -23269,7 +23268,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -23281,7 +23280,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -23293,7 +23292,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -23305,7 +23304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -23336,7 +23335,7 @@
         <v>1.8515368636463684E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -23367,7 +23366,7 @@
         <v>1.098590502852327E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -23398,7 +23397,7 @@
         <v>2.4289912038715481E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -23429,7 +23428,7 @@
         <v>2.0249970840525858E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -23460,7 +23459,7 @@
         <v>4.3307664639113544E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>4.1429989778266124E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -23522,7 +23521,7 @@
         <v>9.0607196194137877E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -23553,7 +23552,7 @@
         <v>2.4096273548660813E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -23584,7 +23583,7 @@
         <v>4.3977234016622964E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -23615,7 +23614,7 @@
         <v>1.6127331651214878E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -23646,7 +23645,7 @@
         <v>3.2579947953546517E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -23677,7 +23676,7 @@
         <v>2.2622748481514651E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -23708,7 +23707,7 @@
         <v>1.5560358233024246E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -23739,7 +23738,7 @@
         <v>1.4699172632167633E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -23770,7 +23769,7 @@
         <v>1.7173456330810789E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -23801,7 +23800,7 @@
         <v>9.0528316943220364E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -23832,7 +23831,7 @@
         <v>1.367318326216123E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -23863,7 +23862,7 @@
         <v>4.457481949630188E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -23894,7 +23893,7 @@
         <v>1.6111140407345775E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -23925,7 +23924,7 @@
         <v>3.1988893466408173E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -23956,7 +23955,7 @@
         <v>2.60381127485712E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -23987,7 +23986,7 @@
         <v>5.4897670294840458E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -24018,7 +24017,7 @@
         <v>4.2445313938977783E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -24049,7 +24048,7 @@
         <v>1.2298547600829661E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -24080,7 +24079,7 @@
         <v>7.4110149908844366E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -24111,7 +24110,7 @@
         <v>5.2076321124849487E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -24142,7 +24141,7 @@
         <v>5.6627609542393944E-7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>7.2026390294718367E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -24204,7 +24203,7 @@
         <v>5.9667006357548019E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -24235,7 +24234,7 @@
         <v>5.635921923294181E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -24266,7 +24265,7 @@
         <v>8.3679437377254147E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -24297,7 +24296,7 @@
         <v>8.1658016129449781E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -24328,7 +24327,7 @@
         <v>4.6409984649550696E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -24359,7 +24358,7 @@
         <v>1.8632891980799706E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -24390,7 +24389,7 @@
         <v>1.3939151831409671E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -24421,7 +24420,7 @@
         <v>3.6756218466079251E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -24452,7 +24451,7 @@
         <v>3.3681516108877863E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -24483,7 +24482,7 @@
         <v>3.8740999897075331E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -24514,7 +24513,7 @@
         <v>2.3747378156704733E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>2.0792421444743706E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -24576,7 +24575,7 @@
         <v>3.6618270330878999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -24607,7 +24606,7 @@
         <v>1.0809205502194578E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -24638,7 +24637,7 @@
         <v>1.6795883949734974E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -24669,7 +24668,7 @@
         <v>2.8784973478888105E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -24700,7 +24699,7 @@
         <v>4.084156746456527E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -24731,7 +24730,7 @@
         <v>5.8253991769678431E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -24762,7 +24761,7 @@
         <v>3.4380695046454489E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -24793,7 +24792,7 @@
         <v>6.7702895433750343E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -24824,7 +24823,7 @@
         <v>3.626953997101922E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -24855,7 +24854,7 @@
         <v>8.929221881612829E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -24886,7 +24885,7 @@
         <v>1.2061053545429463E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>2.366853345394463E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -24948,7 +24947,7 @@
         <v>3.5561474115965541E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -24979,7 +24978,7 @@
         <v>2.7988221196341171E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -25010,7 +25009,7 @@
         <v>7.1582649142570062E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -25041,7 +25040,7 @@
         <v>7.5819793283331324E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -25072,7 +25071,7 @@
         <v>3.901672267729884E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -25103,7 +25102,7 @@
         <v>5.6139258793925549E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -25134,7 +25133,7 @@
         <v>5.4628587293340884E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -25165,7 +25164,7 @@
         <v>1.2170232061386793E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -25196,7 +25195,7 @@
         <v>1.7030634365494113E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -25227,7 +25226,7 @@
         <v>1.1940530778883217E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -25258,7 +25257,7 @@
         <v>1.2975419941768141E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -25289,7 +25288,7 @@
         <v>1.0148958121016034E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -25320,7 +25319,7 @@
         <v>1.5421915287384567E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -25351,7 +25350,7 @@
         <v>1.6529341475396895E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -25382,7 +25381,7 @@
         <v>2.4289912038715481E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -25413,7 +25412,7 @@
         <v>8.5430282867188798E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -25444,7 +25443,7 @@
         <v>9.5171976736925686E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -25475,7 +25474,7 @@
         <v>1.1925176231493903E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -25506,7 +25505,7 @@
         <v>2.1650209896350438E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -25537,7 +25536,7 @@
         <v>1.0672834776276454E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -25568,7 +25567,7 @@
         <v>2.8453032251176827E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>1.177718773313472E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -25630,7 +25629,7 @@
         <v>2.1393052175350418E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>7.0709319315016483E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -25692,7 +25691,7 @@
         <v>5.3750135478894623E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -25723,7 +25722,7 @@
         <v>1.019711329176762E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -25754,7 +25753,7 @@
         <v>1.5880703538871351E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -25785,7 +25784,7 @@
         <v>2.4310303400822131E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -25816,7 +25815,7 @@
         <v>1.19495279272621E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -25847,7 +25846,7 @@
         <v>1.3972998345156105E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -25878,7 +25877,7 @@
         <v>1.3305735545444891E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -25909,7 +25908,7 @@
         <v>2.8825941201849679E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -25940,7 +25939,7 @@
         <v>2.6225232969097263E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -25971,7 +25970,7 @@
         <v>6.0325722245967769E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -26002,7 +26001,7 @@
         <v>4.4454788823622814E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -26033,7 +26032,7 @@
         <v>3.1314579753484811E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -26064,7 +26063,7 @@
         <v>1.0405069168516773E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -26095,7 +26094,7 @@
         <v>4.0559528119743843E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -26126,7 +26125,7 @@
         <v>2.5443588300897376E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -26157,7 +26156,7 @@
         <v>1.3698786586805494E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -26188,7 +26187,7 @@
         <v>1.0774178459681863E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v>4.0917351579201787E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -26250,7 +26249,7 @@
         <v>1.6953541405847483E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -26281,7 +26280,7 @@
         <v>2.9617127338759451E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -26312,7 +26311,7 @@
         <v>5.8208030871121979E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -26343,7 +26342,7 @@
         <v>5.849465545248538E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -26374,7 +26373,7 @@
         <v>7.6690567503609507E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -26405,7 +26404,7 @@
         <v>2.7839897628539282E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -26436,7 +26435,7 @@
         <v>1.872761510316687E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -26467,7 +26466,7 @@
         <v>2.7964356857414072E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -26498,7 +26497,7 @@
         <v>1.3296724897678043E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -26529,7 +26528,7 @@
         <v>7.5498138240131527E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -26560,7 +26559,7 @@
         <v>5.1186473071970417E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -26591,7 +26590,7 @@
         <v>7.768950565337189E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -26622,7 +26621,7 @@
         <v>1.2493966016937971E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -26653,7 +26652,7 @@
         <v>1.9925720790487156E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -26684,7 +26683,7 @@
         <v>2.2557407210566309E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -26715,7 +26714,7 @@
         <v>1.3452146253387179E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -26746,7 +26745,7 @@
         <v>5.7683870089133178E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -26777,7 +26776,7 @@
         <v>5.0429867239238724E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -26808,7 +26807,7 @@
         <v>4.1115271761615882E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -26839,7 +26838,7 @@
         <v>8.9346678800663621E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -26870,7 +26869,7 @@
         <v>2.6900521631930806E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -26901,7 +26900,7 @@
         <v>2.4023546122912284E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>7</v>
       </c>
